--- a/teaching/traditional_assets/database/data/ireland/ireland_green_renewable_energy.xlsx
+++ b/teaching/traditional_assets/database/data/ireland/ireland_green_renewable_energy.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.5557491289198606</v>
+        <v>-0.6303854875283446</v>
       </c>
       <c r="H2">
-        <v>-0.5557491289198606</v>
+        <v>-0.6303854875283446</v>
       </c>
       <c r="I2">
-        <v>-1.316731567723251</v>
+        <v>-1.977324263038549</v>
       </c>
       <c r="J2">
-        <v>-1.316731567723251</v>
+        <v>-1.909292561909252</v>
       </c>
       <c r="K2">
-        <v>43.63</v>
+        <v>14.86</v>
       </c>
       <c r="L2">
-        <v>7.601045296167246</v>
+        <v>3.369614512471656</v>
       </c>
       <c r="M2">
-        <v>26.5</v>
+        <v>39.1</v>
       </c>
       <c r="N2">
-        <v>0.03137579919488515</v>
+        <v>0.03009544334975369</v>
       </c>
       <c r="O2">
-        <v>0.6073802429520972</v>
+        <v>2.631224764468371</v>
       </c>
       <c r="P2">
-        <v>26.5</v>
+        <v>39.1</v>
       </c>
       <c r="Q2">
-        <v>0.03137579919488515</v>
+        <v>0.03009544334975369</v>
       </c>
       <c r="R2">
-        <v>0.6073802429520972</v>
+        <v>2.631224764468371</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.473</v>
+        <v>11.46</v>
       </c>
       <c r="V2">
-        <v>0.001744020838266635</v>
+        <v>0.008820812807881773</v>
       </c>
       <c r="W2">
-        <v>-0.1273857029321956</v>
+        <v>-0.07985464745633049</v>
       </c>
       <c r="X2">
-        <v>0.0682620964365627</v>
+        <v>0.0528070435897599</v>
       </c>
       <c r="Y2">
-        <v>-0.1956477993687583</v>
+        <v>-0.1326616910460904</v>
       </c>
       <c r="Z2">
-        <v>0.01063604679010345</v>
+        <v>0.004877417556712422</v>
       </c>
       <c r="AA2">
-        <v>-0.1906526612448398</v>
+        <v>-0.2701700525291664</v>
       </c>
       <c r="AB2">
-        <v>0.06885290407495637</v>
+        <v>0.04897064212014163</v>
       </c>
       <c r="AC2">
-        <v>-0.2595055653197961</v>
+        <v>-0.3191406946493081</v>
       </c>
       <c r="AD2">
-        <v>288.54</v>
+        <v>306.79</v>
       </c>
       <c r="AE2">
-        <v>0.3001959936572909</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>288.8401959936573</v>
+        <v>306.79</v>
       </c>
       <c r="AG2">
-        <v>287.3671959936573</v>
+        <v>295.33</v>
       </c>
       <c r="AH2">
-        <v>0.2548349679273891</v>
+        <v>0.1910285867284354</v>
       </c>
       <c r="AI2">
-        <v>0.3137384151274308</v>
+        <v>0.2926854864099066</v>
       </c>
       <c r="AJ2">
-        <v>0.2538653037037899</v>
+        <v>0.1852144519074586</v>
       </c>
       <c r="AK2">
-        <v>0.3126386551284629</v>
+        <v>0.2848668409325475</v>
       </c>
       <c r="AL2">
-        <v>6.33</v>
+        <v>5.722</v>
       </c>
       <c r="AM2">
-        <v>-61.47</v>
+        <v>-29.278</v>
       </c>
       <c r="AN2">
-        <v>-95.60636182902584</v>
+        <v>-97.70382165605096</v>
       </c>
       <c r="AO2">
-        <v>-1.197472353870458</v>
+        <v>-1.52394267738553</v>
       </c>
       <c r="AP2">
-        <v>-95.2177587785478</v>
+        <v>-94.05414012738855</v>
       </c>
       <c r="AQ2">
-        <v>0.1233121848055962</v>
+        <v>0.2978345515404058</v>
       </c>
     </row>
     <row r="3">
@@ -725,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-2.175355450236967</v>
+        <v>-1.626470588235294</v>
       </c>
       <c r="J3">
-        <v>-2.175355450236967</v>
+        <v>-1.514550087361678</v>
       </c>
       <c r="K3">
-        <v>51.9</v>
+        <v>18.8</v>
       </c>
       <c r="L3">
-        <v>24.59715639810427</v>
+        <v>5.529411764705883</v>
       </c>
       <c r="M3">
-        <v>26.5</v>
+        <v>39.1</v>
       </c>
       <c r="N3">
-        <v>0.03160028619127116</v>
+        <v>0.0370159992426394</v>
       </c>
       <c r="O3">
-        <v>0.5105973025048169</v>
+        <v>2.079787234042553</v>
       </c>
       <c r="P3">
-        <v>26.5</v>
+        <v>39.1</v>
       </c>
       <c r="Q3">
-        <v>0.03160028619127116</v>
+        <v>0.0370159992426394</v>
       </c>
       <c r="R3">
-        <v>0.5105973025048169</v>
+        <v>2.079787234042553</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,67 +761,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.2</v>
+        <v>9.52</v>
       </c>
       <c r="V3">
-        <v>0.001430956355831147</v>
+        <v>0.009012591119946985</v>
       </c>
       <c r="W3">
-        <v>0.1693311582381729</v>
+        <v>0.03062886933854676</v>
       </c>
       <c r="X3">
-        <v>0.06517138214891736</v>
+        <v>0.05737577465592213</v>
       </c>
       <c r="Y3">
-        <v>0.1041597760892555</v>
+        <v>-0.02674690531737537</v>
       </c>
       <c r="Z3">
-        <v>0.003968328600176789</v>
+        <v>0.003785348474727232</v>
       </c>
       <c r="AA3">
-        <v>-0.008632525248725809</v>
+        <v>-0.005733099863092522</v>
       </c>
       <c r="AB3">
-        <v>0.05645949542475023</v>
+        <v>0.04979083400179928</v>
       </c>
       <c r="AC3">
-        <v>-0.06509202067347604</v>
+        <v>-0.05552393386489179</v>
       </c>
       <c r="AD3">
-        <v>285.6</v>
+        <v>303.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>285.6</v>
+        <v>303.1</v>
       </c>
       <c r="AG3">
-        <v>284.4</v>
+        <v>293.58</v>
       </c>
       <c r="AH3">
-        <v>0.2540473225404732</v>
+        <v>0.2229660144181256</v>
       </c>
       <c r="AI3">
-        <v>0.3175450300200134</v>
+        <v>0.2948156794086179</v>
       </c>
       <c r="AJ3">
-        <v>0.2532502226179876</v>
+        <v>0.2174859987554449</v>
       </c>
       <c r="AK3">
-        <v>0.3166332665330662</v>
+        <v>0.2882247835221583</v>
       </c>
       <c r="AL3">
-        <v>4.75</v>
+        <v>4.81</v>
       </c>
       <c r="AM3">
-        <v>-63.05</v>
+        <v>-30.19</v>
       </c>
       <c r="AO3">
-        <v>-0.9663157894736841</v>
+        <v>-1.14968814968815</v>
       </c>
       <c r="AQ3">
-        <v>0.07279936558287074</v>
+        <v>0.1831732361709175</v>
       </c>
     </row>
     <row r="4">
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.8787878787878788</v>
+        <v>-2.752475247524752</v>
       </c>
       <c r="H4">
-        <v>-0.8787878787878788</v>
+        <v>-2.752475247524752</v>
       </c>
       <c r="I4">
-        <v>-0.8176416525431015</v>
+        <v>-3.158415841584159</v>
       </c>
       <c r="J4">
-        <v>-0.8176416525431015</v>
+        <v>-3.158415841584159</v>
       </c>
       <c r="K4">
-        <v>-8.27</v>
+        <v>-3.94</v>
       </c>
       <c r="L4">
-        <v>-2.278236914600551</v>
+        <v>-3.900990099009901</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,73 +880,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.273</v>
+        <v>1.94</v>
       </c>
       <c r="V4">
-        <v>0.04550000000000001</v>
+        <v>0.007986825854261012</v>
       </c>
       <c r="W4">
-        <v>-0.4241025641025641</v>
+        <v>-0.1903381642512077</v>
       </c>
       <c r="X4">
-        <v>0.07135281072420802</v>
+        <v>0.04823831252359767</v>
       </c>
       <c r="Y4">
-        <v>-0.4954553748267721</v>
+        <v>-0.2385764767748054</v>
       </c>
       <c r="Z4">
-        <v>0.4557898880051349</v>
+        <v>0.1692642869113457</v>
       </c>
       <c r="AA4">
-        <v>-0.3726727972409537</v>
+        <v>-0.5346070051952403</v>
       </c>
       <c r="AB4">
-        <v>0.08124631272516249</v>
+        <v>0.04815045023848399</v>
       </c>
       <c r="AC4">
-        <v>-0.4539191099661162</v>
+        <v>-0.5827574554337243</v>
       </c>
       <c r="AD4">
-        <v>2.94</v>
+        <v>3.69</v>
       </c>
       <c r="AE4">
-        <v>0.3001959936572909</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.240195993657291</v>
+        <v>3.69</v>
       </c>
       <c r="AG4">
-        <v>2.96719599365729</v>
+        <v>1.75</v>
       </c>
       <c r="AH4">
-        <v>0.3506631240161404</v>
+        <v>0.0149641104667667</v>
       </c>
       <c r="AI4">
-        <v>0.152550192786586</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="AJ4">
-        <v>0.3308945177239416</v>
+        <v>0.00715307582260372</v>
       </c>
       <c r="AK4">
-        <v>0.1415161089997387</v>
+        <v>0.09641873278236915</v>
       </c>
       <c r="AL4">
-        <v>1.58</v>
+        <v>0.912</v>
       </c>
       <c r="AM4">
-        <v>1.58</v>
+        <v>0.912</v>
       </c>
       <c r="AN4">
-        <v>-0.9741550695825049</v>
+        <v>-1.17515923566879</v>
       </c>
       <c r="AO4">
-        <v>-1.892405063291139</v>
+        <v>-3.49780701754386</v>
       </c>
       <c r="AP4">
-        <v>-0.9831663332197781</v>
+        <v>-0.5573248407643312</v>
       </c>
       <c r="AQ4">
-        <v>-1.892405063291139</v>
+        <v>-3.49780701754386</v>
       </c>
     </row>
   </sheetData>
